--- a/app/data/absenteeism_data_35.xlsx
+++ b/app/data/absenteeism_data_35.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2778</v>
+        <v>22881</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danilo Mendes</t>
+          <t>Ana Lívia Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>12185.87</v>
+        <v>9877.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38877</v>
+        <v>98313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Pedro Nascimento</t>
+          <t>Enzo Gabriel Moura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>3407.88</v>
+        <v>9926.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9539</v>
+        <v>85482</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pietra Sales</t>
+          <t>Dr. Luiz Fernando Correia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,56 +552,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>6663.89</v>
+        <v>8672.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21026</v>
+        <v>43820</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Olivia Melo</t>
+          <t>Raquel Carvalho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>11202.94</v>
+        <v>10090.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55858</v>
+        <v>18284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Mariana Oliveira</t>
+          <t>Srta. Lara Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>8868.809999999999</v>
+        <v>10266.63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86813</v>
+        <v>6022</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Vitória Azevedo</t>
+          <t>Dr. João Vitor Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>11373.28</v>
+        <v>6854.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92512</v>
+        <v>51531</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabriel Correia</t>
+          <t>Fernanda Pinto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>9271.120000000001</v>
+        <v>6097.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>47795</v>
+        <v>53029</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rebeca Cunha</t>
+          <t>Bruna Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>8561.200000000001</v>
+        <v>8618.190000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16376</v>
+        <v>27365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Laura Dias</t>
+          <t>Ana Sophia Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>11181.59</v>
+        <v>8093.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37372</v>
+        <v>94099</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emanuelly Viana</t>
+          <t>Emanuel Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>7809.94</v>
+        <v>12267.98</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_35.xlsx
+++ b/app/data/absenteeism_data_35.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89859</v>
+        <v>78087</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marina das Neves</t>
+          <t>Dr. Carlos Eduardo Silva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,230 +494,230 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>11783.17</v>
+        <v>3884.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28522</v>
+        <v>27707</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danilo Jesus</t>
+          <t>Murilo Duarte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>6093.49</v>
+        <v>12476.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28148</v>
+        <v>17963</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Gabriel Souza</t>
+          <t>Daniela Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>4400.68</v>
+        <v>12344.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50124</v>
+        <v>77343</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Otávio Lima</t>
+          <t>Raul Aragão</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>4212.65</v>
+        <v>8027.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17252</v>
+        <v>64715</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juliana da Rocha</t>
+          <t>Pietra Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>10929.16</v>
+        <v>8003.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34474</v>
+        <v>22946</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Sofia Santos</t>
+          <t>Yuri da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>3763.13</v>
+        <v>8899.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77749</v>
+        <v>91479</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Augusto Moraes</t>
+          <t>Thales Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>2885.73</v>
+        <v>10632.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59577</v>
+        <v>90789</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Beatriz Viana</t>
+          <t>Luna da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>2535.89</v>
+        <v>12384.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41870</v>
+        <v>71130</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sophia da Mota</t>
+          <t>Benjamin Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>9579.83</v>
+        <v>4390.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40866</v>
+        <v>46245</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatriz da Costa</t>
+          <t>Lorenzo Dias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>5503.41</v>
+        <v>10266.26</v>
       </c>
     </row>
   </sheetData>
